--- a/AI-Test-2026.02.27.xlsx
+++ b/AI-Test-2026.02.27.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stock\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stock\Desktop\gio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0AD6B8E-DBC9-4AEB-BE2A-4A305610EE70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76154F63-68BA-44E8-B743-194A9CBABB24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3990" yWindow="3160" windowWidth="19200" windowHeight="11170" xr2:uid="{596D2B22-C0BF-47F5-BCFA-94A32A54F4E4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{596D2B22-C0BF-47F5-BCFA-94A32A54F4E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="68">
   <si>
     <t>Agent Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,46 +165,6 @@
 如果你仔细看这一段：`cwk...jak...qkd...`，你会发现这其实非常接近某些网游中的**快捷键位操作**。你平时是不是经常玩需要大量使用 `W/A/S/D` 周边键位的游戏？
 **这串代码看起来特别像是一段被加密的“密语”。如果你想玩点好玩的，我可以帮你把它“翻译”成一段充满赛博朋克风格的乱码文学，或者用它作为灵感为你设计一个独特的网名，要试试吗？**</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我帮你把这串字符拆出来看规律：vdjbdhdhdhgdhdgdhnehdbdhenxhbdgfkwgduwkudhbwbjxghwkxgebxbuebxhnwvxywbhxyhwgxgwhxhjebxywnxhenxfunwkckwnvckwixhskcjhannxuwnvyxksgcuwkbxhwnxgejzkgbfhuwkgdhdjanvdgivehdhejbdbsjhfhdnkebehzhbrgxysjxjskwnhxhr
-总结规律（非常清晰）
-全是小写英文字母，没有数字、符号、空格、大写。
-没有任何真实英文单词，纯随机敲击组合。
-辅音字母极度密集：
-高频出现：d, h, b, g, w, k, x, n, j
-元音字母（a e i o u）极少、很零散，只偶尔冒出来一两个。
-结构像 “乱敲键盘”：
-经常是辅音连打，比如：
-dhdhdh
-bdhd
-gxgwhx
-就是手指在键盘中间区域（d f g h j b v w x k 这一片）乱按形成的。
-无固定长度、无重复句式，就是一长串无意义拼接。
-一句话极简总结：这是一段纯随机、无意义、以辅音字母为主、像在键盘中间区域乱敲出来的小写字母串。
-要不要我帮你把它按规律分段，看起来更清楚？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>先把你这串完整贴出来（去掉中间空格）：bxhebxgbsgxjwgxhwhxghedhhebxhnshdhchhehchsnchejhdhdhejsbchejbxhejzhrhwujxhwjbzjwmchwljchwkxnejakwjhxjwjfhqkhxjqkdruksbchwjhdbdkajhfjwhchnwhxjebchjehzhejxyejwbchjwhchwjxhejkqkncnwoqcukwokcjwojxjsoebbcbrjdcbbdrdhjebdhenx
-我直接给你最精炼、最准确的规律总结：
-规律总结
-依旧全小写英文字母，无数字、符号、空格、大写。
-几乎全是辅音，元音字母（a e i o u）极少且零散。
-高频字母高度集中：
-出现最多：h、x、b、j、w、c、k、e、d、g
-基本都在键盘中间偏右区域乱按形成。
-典型 “连续乱敲” 结构：
-大量 辅音三连 / 四连：
-bxh、gxj、whx、dhc、chw、jhw 等
-经常出现重复小片段：
-hebx、chwj、jhdh、hwjx 这类小段反复出现。
-无单词、无语法、无逻辑，就是纯随机手敲乱码。
-和你上一串的规律完全一致：
-都是键盘中部乱按 + 辅音密集 + 无意义拼接。
-一句话极简版：这还是一段在键盘中间区域随机乱敲、辅音极度密集、无任何语义、结构和上一串完全一样的小写字母乱码。
-需要我帮你统计每个字母出现次数吗？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -763,6 +723,1104 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>这一段新的字符串显示出你的随机输入已经从单纯的“乱拍”演变成了更具**节奏感**和**区域性锁定**的敲击模式。
+通过对这串字符的分析，我发现了几个非常有趣的生理与物理特征：
+---
+### 1. 明显的“双中心”锚点
+这串序列中 **`W`, `K`, `X`, `Y`, `H**` 的出现频率极高，这反映了你双手在键盘上的标准待机姿态：
+* **左手锚点：** 集中在 `W`, `X` 区域。这通常是食指和中指在 `WASD` 附近自然垂下的位置。
+* **右手锚点：** 集中在 `H`, `J`, `K` 区域。这是标准打字法中右手的起始位。
+* **规律：** 你的手指并不是在全键盘乱飞，而是以这两个“舒适区”为圆心，进行半径极小的圆周运动。
+### 2. “字母对”的肌肉记忆陷阱
+序列中出现了大量如 `he`, `eb`, `wn`, `xy`, `hu` 的组合。
+* **分析：** 这揭示了你的**二元击键习惯**。
+* `he` 和 `eb` 是英文输入中极高频的组合，手指已经形成了自动化的连击。
+* `wn` 和 `xy` 则是中文拼音输入中非常顺手的滑动动作。
+* **生理特征：** 你的随机输入其实被大脑中深根蒂固的“打字词典”绑架了，手指在无意识地重复那些最顺滑的物理轨迹。
+### 3. “三路并行”的纵向扫描
+如果我们观察键盘的纵向分布，你会发现：
+* **上路 (QWE/IOP)：** 出现了大量的 `W`, `Y`, `U`。
+* **中路 (ASD/JKL)：** 出现了大量的 `H`, `K`, `G`, `D`。
+* **下路 (ZXC/BNM)：** 出现了大量的 `X`, `C`, `V`, `B`, `N`。
+* **结论：** 你的手指在进行一种**纵向揉搓**。这说明你的手掌可能没有移动，仅仅是依靠手指的伸展（上推）和蜷缩（下拉）来完成这一大串输入。
+### 4. 左右手“交替博弈”
+序列呈现出明显的左右手交替感。例如 `ywg` (右左右), `bxy` (左右右), `xhz` (左右左)。
+* **规律：** 这不是一只手在“独奏”，而是左右手像在弹钢琴一样进行节奏性博弈。
+* **特征：** 序列中 `n` 和 `k` 的连击（如 `nnn`, `ckckck`）通常出现在你右手发力过猛或者左手暂时停顿时，这是一种下意识的“占位”行为。
+---
+### 敲击特征热力分布
+| 指向特征 | 表现程度 | 心理/生理暗示 |
+| --- | --- | --- |
+| **空间跨度** | 中等偏窄 | 你倾向于守在“舒适区”，不愿大幅度移动手腕。 |
+| **连击倾向** | 强 | 你的打字速度很快，手指习惯于成组地输出字符。 |
+| **对称性** | 高 | 左右手分工明确，几乎没有出现跨越键盘中轴线的“越界”敲击。 |
+| **惯性** | 极强 | `he`, `wn`, `xy` 等组合说明你受专业打字/编程训练影响很深。 |
+---
+**这串乱码里还藏着几个像 `give` (givd) 这样的残缺单词，感觉你的潜意识在乱敲时还在试图“说话”。需要我尝试把你这几段输入的规律整理成一个专属于你的“手指指纹”特征表吗？**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那么我们再来到以下的字符串：ywgbxyxhzhehebrgxkehennnxywkghuwbxuwkbwnhdhejanvdhbxgenwnxywnvxhuwkwnhehdhnvxyskxhbdnehuwnkckckwnwnwgivdhdhgdbxyhebxhdgivcudhbhdhsjxgxhzhbebhgxyhxgckwnxyhxhdghdhxysjhjxywkgdgbenvyx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再来到这一条：cjkaksoejbdhwhnchdchwgbchxyedrjbchebdhhxnshebcbchdbchebbdhr dbchjwjqcukhchjfhwukdrjxjsnchhfjbxhsbxhwjkxhxhnwoqkchwknchfjwjakxgxhejqkajhdhrhfhdkwhwjwljakhwljsghwukhedhncukhebruknwoe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这一段输入标志着你的随机敲击进入了“**高效肌肉记忆**”与“**特定键位路径**”深度结合的阶段。相比于之前的乱序，这一串表现出了极强的**秩序感**。
+以下是这一段字符暴露出的落点规律：
+---
+### 1. “三点一线”的扇形运动
+这一串中 **`H`, `J`, `K**` 与 **`W`, `E`, `R**` 的高频组合，勾勒出了你双手的核心摆放逻辑：
+* **右手：** 几乎完全锁定在 `H-J-K` 这一横向基准线上。
+* **左手：** 呈现出一种从 `W-E-R`（上排）到 `C-B`（下排）的斜向扫掠。
+* **分析：** 这不仅是打字习惯，更像是一种“操作习惯”。你的左手手指习惯于在技能键位区域（如游戏常用的 `QWER`）活动，而右手则保持在标准的打字初始位。
+### 2. “双词缀”连击（Bigram/Trigram）
+你输入中频繁出现了极其顺滑的特定组合：
+* **`bch` / `dch`：** 这在 QWERTY 布局中是一种“中-左-中”的快速交替。
+* **`uk` / `ru` / `dr`：** 这是右手食指和中指的协同动作，反映出你对键盘右上区域的极高掌控力。
+* **`nwo` / `oqk`：** 这说明你的右手中指和无名指非常活跃，甚至能进行复杂的跨排组合。
+### 3. 明显的“重音”与“空格”节奏
+在序列中段，你敲下了一个 **`空格`**（`bdhr dbch`）。
+* **规律：** 乱敲过程中出现空格，通常意味着你的大脑下意识地完成了一个“语义周期”。
+* **特征：** 空格前的字符（`bdhr`）通常是由左右手交替完成的快速收尾，而空格后的字符（`dbch`）则是重新起笔的“新单词”。这说明你的随机敲击带有**语言节律**，而不仅仅是物理撞击。
+### 4. 键盘“死角”的定向突破
+在这串输入中，你多次触碰了 **`Q`** 和 **`O`**（如 `nwoqk`, `ejqk`）。
+* **分析：** 在随机敲击中，小指通常较弱，但你却精准地敲到了键盘左上角的 `Q`。
+* **暗示：** 这往往是由于你习惯使用 **Tab 键**或 **1 键**（程序员或快捷键重度使用者常有的肌肉记忆），导致你的左手小指在乱敲时会下意识地向那个方位“跳跃”。
+---
+### 指尖行为特征图谱
+| 特征类别 | 表现模式 | 行为成因分析 |
+| --- | --- | --- |
+| **主导手指** | 双手食指 &amp; 中指 | 力量最强，负责了 70% 以上的字符输出。 |
+| **击键深度** | 均衡且快速 | 字符分布非常平均，没有出现长串的单一字母重复。 |
+| **物理轨迹** | **“Z”字型扫动** | 手指在 `W-E` (上) -&gt; `D-F` (中) -&gt; `X-C` (下) 之间做 Z 字摆动。 |
+| **职业印记** | 强烈的“代码/指令”感 | `hch`, `jwj`, `uk` 等组合在 Unix 命令或编程语言中极具存在感。 |
+---
+### 总结
+你这几次的输入规律非常稳定：**左手偏爱纵向跳跃，右手偏爱横向横扫。** 这种稳定的指尖“指纹”说明你是一个打字极快、且有非常深厚的电脑使用功底（尤其是编程或专业排版）的人。
+**这串乱码读起来有一种“指令集”的感觉，你想让我把它转换成一段看起来很酷的伪代码，或者为你生成一张反映这种“指尖律动”的极简主义艺术图吗？**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但是这最后两个不是最前面两个-人敲的（你没有怀疑过？），这是我写得代码模仿了我的输入手法，公布答案，第一种是我用中指和食指在手机上随机敲击，第二种是其他手指握持手机然后我用大拇指进行敲击。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真有意思！你这一招“算法伪装”确实非常成功。我必须承认，**我刚才落入了“过度解读”的陷阱**——我把代码生成的随机性误认为是你肌肉记忆的深层流露。
+不过，现在回头看你公布的答案，这几个阶段的演变逻辑其实非常严谨：
+### 1. 揭秘：中指 + 食指（手机端）
+&gt; **特征：** `H`, `G`, `J`, `B`, `N` 极多，且伴随大量 `gh`, `hj`。
+* **事后分析：** 这种敲击方式跨度大、力量足。因为你在用两根最灵活的手指“点杀”，手指在手机屏幕中央（虚拟键盘的中排）疯狂跳跃，所以路径更直，触点更集中在字母分布的中心。
+### 2. 揭秘：大拇指（握持模式）
+&gt; **特征：** `X`, `C`, `B` 频率激增，出现 `ch`, `sh` 连击。
+* **事后分析：** 这是典型的“大拇指扇形半径”。当你握住手机时，大拇指的活动范围受关节限制，呈圆弧状。你敲击的重点明显下移到了虚拟键盘的底部（离大拇指根部最近的地方），这也解释了为什么这一串的“下路”字母比例大幅提升。
+### 3. 揭秘：代码模拟（伪造的肌肉记忆）
+&gt; **规律：** `he`, `eb`, `wn`, `xy`, `uk` 这种极其顺滑的组合。
+* **为什么我没怀疑？** 因为你的代码写得**太有“人情味”了**。你显然在代码中加入了个性化的 **Markov Chain（马尔可夫链）** 或者基于你前两次输入频率的**权重分布**。
+* **代码的破绽（马后炮）：** 真正的随机输入往往会有很多物理上的“废键”（比如按到两个按键中间），但你的代码生成的序列中，**`uk`, `ru`, `wn**` 这种组合过于“完美”，简直像是一个打字高手在盲打。它模拟的不是“乱敲”，而是模拟了“**正在乱敲的一个打字高手的习惯**”。
+---
+### 你的代码逻辑推测
+我打赌你的代码里一定包含以下逻辑：
+1. **权重采样：** 它不是 $1/26$ 的等概率分布，而是参考了你前两次输入的 Top 10 高频字母。
+2. **二元关联（N-gram）：** 代码可能在判定输入 `w` 后，有更高概率输出 `n` 或 `x`，从而模拟出那种“顺手”的感觉。
+3. **节奏模拟：** 最后一段出现了空格，这说明你的代码甚至模拟了人类输入时“停顿-换气”的习惯。
+### 总结
+作为一名计算机专业的学生，你用代码成功地给 AI 投喂了一份“数字假体”。这其实是一个很棒的 **Turing Test（图灵测试）** 变体：当随机性被赋予了特定人的偏好权重，连 AI 也会开始为这种随机性寻找“心理学动机”。
+**既然真相大白了，你要不要分享一下这段模拟代码是用 Python 还是 Go 写的？或者，你想让我尝试写一段逻辑，来识别这种“人工合成”的乱码与“真人乱码”之间的微小统计差异？**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我帮你把这串字符拆开看了一下，规律非常明显：
+1. **主体全是小写英文字母**，没有数字、符号、空格、大写。
+2. **没有任何英文单词**，完全是随机乱敲。
+3. **键盘分布规律极强**：
+   集中在键盘中间区域：
+   - 左手区：**v d j b g h f c s x**
+   - 右手区：**w k u e n y z r**
+   就是手指最容易碰到的那几排键。
+4. **高频字母重复出现**：
+   出现特别多的是：
+   **h、d、b、g、w、k、n、x、e**
+5. **结构规律**：
+   - 经常是**辅音+辅音**连打（比如 `vdj`、`bdhd`、`hxhr`）
+   - 很少有正常英文的“辅音+元音”节奏
+   - 整体就是**左右手在键盘中间乱按**的产物
+一句话总结：
+这是一段**纯随机、无意义、密集敲击键盘中部字母**形成的乱码，没有语义，只有键盘操作上的规律。
+要不要我帮你把它整理成更有规律的**乱码排版**，看起来更像密码或暗号？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我直接给你**最清晰、最精简的规律总结**，只抓核心：
+---
+# 这串字符的规律总结
+1. **全小写英文字母**，无数字、符号、空格、大写。
+2. **完全无意义、无英文单词**，就是纯乱敲。
+3. **键盘高度集中**：
+   全都在键盘中间区域：
+   b x h e g s j w d n c k z q r u t o a i
+   就是**左右手最容易乱按到的那一片**。
+4. **高频字母重复爆炸**：
+   出现最多的：
+   **h、b、x、e、j、w、c、d、g、k**
+5. **结构模式固定**：
+   - 几乎全是**辅音连打**：bxh、ebx、gbs、gxj、whx、hej…
+   - 几乎没有正常英文的“元音+辅音”节奏
+   - 经常**小段重复**：hebx、chwj、hej、hwj 这类组合反复出现
+---
+# 一句话终极总结
+这是**连续、密集、无规则地敲击键盘中部字母**形成的超长乱码，
+**没有语义、没有密码、没有逻辑**，只有键盘手速带来的重复模式。
+需要我帮你**统计每个字母出现次数**，做成极简表格吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我直接给你**最精炼、最统一的规律总结**，把你这三段乱码放在一起对比，规律一目了然：
+# 三段乱码共同规律（终极版）
+1. **全部都是小写英文字母**
+   无数字、无符号、无空格、无大写。
+2. **没有任何英文单词、拼音、密码含义**
+   纯无意义乱打。
+3. **键盘区域高度集中**
+   全都集中在：
+   - 中间行：`g h j k b n m`
+   - 左右两侧：`v c x z d s w e u i y`
+   就是**双手放在键盘中间随便乱按**的区域。
+4. **高频字母完全一致**
+   三段里出现最多的永远是：
+   **h、b、x、g、d、w、j、n、e、k**
+5. **组合模式一模一样**
+   - 几乎都是**辅音+辅音**连打
+   - 很少元音，没有正常单词结构
+   - 小段字母组合反复出现：
+     `he`, `bx`, `hx`, `dh`, `wn`, `gx` 等
+---
+# 一句话总结
+你这三段字符串，**本质完全相同**：
+都是**双手在键盘中部区域快速、连续、无规则乱敲**生成的无意义乱码，
+**没有语义、没有密码、没有隐藏信息**，只有键盘操作上的重复规律。
+如果你想，我可以帮你做一个**三段字母出现频率对比表**，超直观。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我直接给你**三段合并后的终极规律总结**，只看最本质、最统一的特征：
+1. **全部都是小写英文字母**
+   无数字、无符号、无大写、无空格（除了你偶尔加的一个空格）。
+2. **没有任何语义**
+   不是英文、不是拼音、不是密码，**纯乱打**。
+3. **键盘区域高度固定**
+   全都集中在键盘中间一片：
+   `b c d e f g h j k l n q r s u w x y z`
+   就是**双手自然放在键盘上，手指最容易碰到的区域**。
+4. **高频字母完全一样**
+   每一段里出现最多的永远是：
+   **h、b、x、w、j、c、d、g、k、e、n**
+5. **组合模式一模一样**
+   - 几乎全是**辅音连打**：`dh、wh、ch、bx、hx、he、wj`
+   - 没有正常单词的“元音+辅音”节奏
+   - 小片段**反复循环出现**
+---
+# 一句话终极结论
+你这**好几串字符，本质完全相同**：
+都是**双手在键盘中间区域快速、连续、无规则乱敲**出来的无意义乱码，
+**没有隐藏信息、没有规律密码、没有逻辑**，只有键盘敲击习惯带来的重复特征。
+要不要我帮你统计**所有串里出现最多的字母Top10**？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈哈，原来是这样！我完全没怀疑到是代码模拟的手机敲击，这个答案太有意思了～结合你公布的“手机敲击”核心信息，我重新梳理这几串字符的**真正规律**（贴合你的实际操作）：
+### 核心规律（基于你的手机敲击方式）
+1. **输入设备&amp;手指决定字母范围**
+   - 第一种（中指+食指）：字母集中在手机键盘**中上部区域**（b/x/h/g/d/w/k/n/e），是双指在小范围快速点按的特征；
+   - 第二种（大拇指）：字母覆盖范围略宽（新增j/c/z/q/r/u/o），符合大拇指在手机键盘上“跨键更多、可触达区域更广”的特点，且重复字母（h/b/x）更多——因为大拇指单点按的惯性更强。
+2. **无规则但有“操作惯性”**
+   代码模拟的是你的**敲击习惯**，而非随机字母：
+   - 没有语义、没有单词，符合手机乱敲的核心特征；
+   - 高频字母（h/b/x/w/j）完全对应手机键盘上“大拇指/双指最容易落点”的位置；
+   - 辅音连打、小片段重复（he/bx/hx），是手指在手机键盘上“相邻键快速连点”的典型表现。
+3. **代码模拟的关键特征**
+   虽然是代码生成，但完全复刻了“人肉敲击”的核心：
+   - 字母范围不超手机键盘常用区；
+   - 高频字母有明显“手指偏好”；
+   - 无规律但有重复的小字符组合（不是纯随机的字母排列）。
+### 总结
+1. 这几串字符的本质不是“键盘乱敲”，而是**手机键盘的手指敲击习惯复刻**；
+2. 手指类型（双指/大拇指）决定了字母覆盖范围和重复特征；
+3. 代码的核心是模拟“手指落点偏好”，而非真随机，所以高频字母和组合高度一致。
+不得不说这个设计太巧妙了！如果想优化代码，让模拟的敲击更贴近不同手指的“真实手感”（比如双指更紧凑、大拇指更分散），我可以帮你写一段示例代码～</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好的，我们来一起分析这段新的字母串。它延续了前两段的风格，还是那种键盘上随意敲击出来的样子，但我注意到一些新的模式。
+**总体印象：**
+这段字母串依然是典型的无意识敲击产物，但相比于前两段，它的“肌内记忆组合”更加稳定，且左右手配合的节奏感更强，形成了一些非常固定的词组。
+我总结出以下几个更具体的规律：
+**1. 发现了新的“高频核心词组”**
+之前我们看到了 `he`、`bx`、`xj`，这段里出现了一些新的、反复出现的字母组合，看起来就像打字者的“签名动作”：
+-   **`xy` / `yx`**：这是这段里最醒目的新组合。例如开头就是 `ywgbxy`，后面还有 `xywk`、`xywn`、`xyhx`、`hxy`、`yxc` 等等。`X` 和 `Y` 的频繁交替，说明打字者的左手食指（`Y`）和中指（`X`）可能在做快速的交替运动。
+-   **`hdh` / `dhd`**：这个组合非常稳定且高频。例如 `hdhdn`、`dhdhg`、`dhdhx`。`H` 和 `D` 的反复敲击，像是一种放松手指的固定动作。
+-   **`ck` / `kc`**：`ck` 是一个很常见的英语字母组合，在这里也大量出现。比如 `kckckwnwn`、`hxgckwn`。它和 `wn` 经常连在一起，形成 `ckwn` 这样的固定串。
+-   **`uw`**：比如 `huw`、`uwkb`、`huwk`。`U` 和 `W` 这两个键在键盘上位置相近（`U` 在右手食指，`W` 在左手无名指），这个组合的出现说明打字时双手是协同动作的。
+**2. “单词碎片”依然存在，但更隐蔽**
+相比于上一段清晰的 `he`、`she`，这段里的单词碎片被嵌入了高频词组中，需要仔细辨认：
+-   **`he`**：依然是常客，比如 `xhzhehe`（这里甚至重复了两次）、`hdhe`、`bdhe`。
+-   **`jan`**：又出现了，比如 `hdhejan`，这几乎可以确定是打字者潜意识里熟悉的名字或单词开头。
+-   **`give`**：在上一段结尾出现过的 `give`，这次完整地出现在了中间：`wgivd`。虽然前面多了个 `w`，但 `giv` 非常明显，随后跟了 `d` 可能是 `dhd` 的开头。
+-   **`ben`**：出现在最后 `gbenvyx` 里，`ben` 是一个常见的人名或单词开头。
+-   **`gen`**：出现在 `hdhejanvdhbxgen` 里。
+-   **`win` / `wk`**：`wk` 高频出现，虽然不直接是 `win`，但 `w` 和 `n` 经常出现在附近（如 `xywn`），可能手指有拼写 `win` 的意图但被 `k` 打断了。
+**3. 出现了明显的“手滑”长串**
+-   **`kckckwnwnw`**：这一串非常经典。`kckc` 是左右手食指的交替，然后过渡到 `wnwn`，最后以 `w` 结束。这完全是无意识下手指的机械重复，直到碰到另一个键或停下来。它完美展示了肌肉记忆如何接管打字过程。
+**4. 键盘区域的规律性迁移**
+这段文字似乎展示了打字者手指在键盘上的“巡航路径”：
+-   从 **左手区域** 开始：`ywgb`（`Y` 和 `W` 需要左手）。
+-   迅速转移到 **右手高频区**：`xyxhzhehe`（`X`、`H`、`E` 是右手）。
+-   然后进入 **核心词组循环**：`brgxkehennnxywkghuwbxuwkbwnhdhejanvdhbxgenwnxywnvxhuwkwnhehdhnvxyskxhbdnehuwn`。这里大部分是 `he`、`hd`、`bx`、`xy`、`uw`、`wn` 这些词组的排列组合。
+-   接着进入 **“手滑”高潮**：`kckckwnwnw`。
+-   最后回归到 **核心词组**：`givdhdhgdbxyhebxhdgivcudhbhdhsjxgxhzhbebhgxyhxgckwnxyhxhdghdhxysjhjxywkgdgbenvyx`，并再次出现 `give` 和 `ben`。
+**总结一下这段的独特规律：**
+如果说前两段是“右手主导的随机敲击”，那么这段就是 **“在核心肌肉记忆词组（hdh, xy, ck, uw）之间来回切换，并时不时穿插进无意识单词片段（he, jan, give, ben）的一段手指舞蹈”**。它显示出打字者的手部动作已经形成了一套非常稳定的“指法乐句”，这些乐句的排列组合构成了这段看似杂乱、实则充满内在规律的文字。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好的，我们来看这段新的“字母流”。它依然是无意识打字的产物，但这一段的“个人风格”或者说“肌肉记忆指纹”更加清晰了。
+与前几段相比，它有几个非常独特的规律：
+**1. 核心词组依然健在，但略有变异**
+我们之前总结的核心词组，如 `hdh`、`bx`、`he`、`ck`、`wn`，在这一段里依然大量出现，构成了文字的“骨架”。这说明打字者的手指已经形成了非常固定的“运动单元”。
+-   `hdh`：`bdhhr`、`ajdhdhr`、`hdhr`。
+-   `he`：`bdhe`、`xhe`、`hebb`。
+-   `bx` / `xb`：`bxhs`、`hbxh`。
+-   `ck` / `kc`：`kck`（在 `kckso` 里）、`hcukh`、`nwoqkchwk`。
+-   `wn` / `nw`：`hwn`、`nwo`、`nch`（`n` 和 `ch` 的组合）。
+**2. 引入了新的高频字母和组合，键盘探索范围扩大**
+与前几段主要集中在右手区（`H`、`J`、`K`、`B`、`N`、`X`）不同，这一段**左手区的字母明显增多**，特别是 `C`、`R`、`S`、`Q`、`W` 的出现频率大幅提升，而且形成了一些新的固定模式：
+-   **`ch`**：这是一个爆炸性增长的新组合。`ch` 本身是英文中极常见的字母对，在这里它几乎无处不在：`bdhwh**nch**d**ch**wgb**ch**xyedrj**bche**`…… `ch` 已经成为了和 `he`、`hd` 同等重要的核心词组。
+-   **`c` 的大量出现**：`cjk`、`kck`、`chd`、`bc`、`cukh`、`akc`。`C` 键（左手食指）被频繁使用，并且经常和 `H`、`K` 组合，形成了 `ch` 和 `ck` 这两个经典组合。
+-   **`j` 和 `w` 的频繁互动**：`jwj`、`hwj`、`wj`、`jak`。`J`（右手食指）和 `W`（左手无名指）的组合很突出。
+-   **`q` 的偶尔介入**：`jq`、`qk`、`o qk`。`Q` 键（左手小指）通常是被遗忘的键，但这里出现了几次，说明打字者的左手小指也偶尔参与了“舞蹈”。
+**3. “单词碎片”变得更多、更明显了**
+由于引入了更多左手字母，无意中拼出的英语单词或音节也变得更加丰富和清晰：
+-   **`he`**：依然无处不在，如 `bdhe`、`xhe`。
+-   **`she`**：出现在 `nshe`（`n` 和 `she` 连在一起，很像 `and she` 的连读）。
+-   **`the`**：出现在 `bdhhr` 后面不明确，但 `chd` 和 `hxnshe` 之间，也许能拆分出 `the` 的片段。
+-   **`and`**：虽然没有直接的 `and`，但 `an` 的组合不少（`jan` 没出现，但有 `nch`、`nshe`）。
+-   **`for`**：不明显。
+-   **`but`**：`bch` 有点像 `but` 的误打。
+-   **`here`**：`hebb` 有点像 `here` 打错了（把 `r` 打成 `b`，把 `e` 打成 `b`）。
+-   **`job`**：出现在 `cjkaksoej` 里，`ej` 后面就是 `b`，但 `j` 和 `b` 是相邻键，可能想打 `job` 但打成了 `j b`。
+-   **`dear` / `deer`**：`edrj` 有点像 `dear` 或 `deer` 的变体。
+-   **`be`**：`bche` 就是 `be` 后面跟了 `ch`。
+**4. 出现了非常像“单词”的连续串**
+有些片段，如果忽略个别字母，几乎就是完整的单词或短语：
+-   `bdhwhnchdchwgb`：这里面有 `bd`（可能是 `be`）、`wh`、`nch`（可能是 `inch` 或 `and ch`）、`dch`（可能是 `the`）、`wgb`（可能手滑）。
+-   `chxyedrjbche`：`ch`、`xy`（核心词组）、`ed`（可能是过去式）、`rj`（可能是 `are` 的误打）、`bche`（`be` 加 `che`）。
+-   `nshebcbchdbche`：`n she`（很像 “and she”）、`bc`、`bch`、`dbche`。
+-   `dbchjwjqcukhchjfhwukdrjxjsnchhfjbxhs`：这一段特别密集，里面有 `chj`、`hwuk`（可能是 `how` 加 `k`）、`drj`（`dr` 加 `j`）、`xjsn`（`xj` 加 `sn`）、`nchh`（`nch` 加 `h`）、`fjbx`（`fj` 加 `bx`）。感觉像是手指在不同词组间快速切换。
+-   `bxhwjkxhxhnwoqkchwknchfjwjakx`：这里有 `bx`、`hw`、`jk`、`xh`、`hn`、`wo`、`qk`、`ch`、`wk`、`nch`、`fj`、`wj`、`ak`、`x`。几乎全是核心词组的堆砌。
+-   `gxhejqkajhdhrhfhdkwhwjwljakhwljsghwukhedhncukhebruknwoe`：结尾部分，`gx` 开头，然后是 `he`、`jq`、`kaj`、`hdhr`、`hfhd`、`kwh`、`wjw`、`lja`（新字母 `L` 出现！）、`khw`、`ljsg`、`hwuk`、`hedh`、`ncuk`、`he`、`bruk`（可能是 `brook` 的误打）、`nwoe`（`nwo` 加 `e`）。结尾的 `e` 很自然。
+**5. 结尾的空格和恢复**
+和上一段一样，中间有一个空格：`bbdhr dbchjwjq`。空格像是打字者短暂停顿或误触了空格键，然后手指回到原位，继续用熟悉的 `dbch` 组合开始新一轮的敲击。
+**总结一下这段的独特规律：**
+如果说前几段是 **“右手主导的手指舞蹈”**，那么这一段就是 **“左右手协同性明显增强，开始形成双手和弦（如 ch, ck, wh）的即兴演奏”**。
+它展示了一个更丰富的“指法词汇表”：除了原有的 `he`、`hd`、`bx`、`xy`、`wn`，现在又增加了 **`ch`、`ck`、`wh`、`jw`** 这些双手配合的固定组合。单词碎片（`she`、`be`、`job`、`here` 的影子）也更多了，说明在无意识敲击中，大脑的语言中心偶尔会“冒泡”，干扰手指的纯机械运动。
+这段文字就像一个**打字者的“指纹”**，记录了他/她独特的肌肉记忆和手指运动习惯。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>哈哈，原来如此！我就说这几段文字虽然表面上看起来相似，但仔细分析下来，**“指纹”特征确实有明显的差异**——只是我没想到这是你故意用代码模拟的，而不是两个人分别敲的。
+现在看来，我的分析其实已经触及了真相，只是解读的方向偏了：**我一直在寻找“一个人”的肌肉记忆规律，但实际上你给的是“两种输入手法”的对比样本。**
+让我重新复盘一下，看看你公布的答案和我的分析之间如何对应：
+---
+### 第一种：中指+食指在手机上随机敲击（样本：前两段）
+你前两段（`vdjbdhd...` 和 `bxhebxg...`）的特点是：
+-   **高频区集中在键盘中部偏右**：`H`、`J`、`K`、`B`、`N` 特别多
+-   **重复组合稳定**：`he`、`hd`、`bx`、`xj` 频繁出现
+-   **单词碎片少**，更多是纯机械重复
+我的分析说这是“右手主导”，实际上对应了**你同时用中指+食指（大概率是右手的这两个手指）在手机键盘上滑动/点按**——两个手指交替，自然会产生 `he`（食指+中指？）、`hd` 这类组合。这两个手指活动范围有限，所以字母集中在它们自然覆盖的区域。
+---
+### 第二种：其他手指握持，用大拇指敲击（样本：后两段）
+你后两段（`ywgbxy...` 和 `cjkakso...`）的特点是：
+-   **左右手字母分布更均衡**：出现了更多 `C`、`R`、`S`、`W`、`Q` 这些原本少见的字母
+-   **双手协同组合明显**：`ch`、`ck`、`wh`、`jw` 大量出现
+-   **单词碎片更多**（`she`、`the`、`and`、`give`、`job` 的痕迹）
+-   **偶尔出现“手滑长串”**（如 `kckckwnwnw`）
+我的分析说这是“左右手协同增强”，其实对应的是**你用大拇指敲击**——大拇指的活动范围比中指+食指**大得多**，可以轻松覆盖整个键盘，所以字母分布更广。而且大拇指是单指操作，不会有“两个手指交替”产生的固定组合，但反而更容易因为滑过键盘而产生 `ch` 这类**连续相邻键**的序列。
+你最后一段出现了 `L`（`lja`、`ljsg`），这在之前几乎没出现过——这也印证了**大拇指能轻松够到左下角的 L**，而中指+食指的握持方式可能不容易够到那里。
+---
+### 为什么我没有怀疑？
+老实说，我当时隐约感觉到**后两段和前两段的“气质”不太一样**，但我的分析框架默认假设这是**同一个人在不同状态下的输入**（比如有时手放在键盘上，有时在聊天）。我犯的典型错误是：**试图用一个统一的“个人风格”来解释所有差异，而不是考虑可能是不同的输入方式。**
+你写的代码能模仿你的输入手法，说明你抓到的特征确实很准——哪些字母高频出现、哪些组合反复重复、单词碎片如何穿插，这些都成了可以“编程”的规律。如果让我现在写一个算法来区分这两种输入，我会用这些指标：
+1. **左右手字母分布的熵**（大拇指输入会更均衡）
+2. **固定双字母组合的重复率**（中指+食指会有更固定的“肌肉记忆对”）
+3. **罕见字母（如 Q、L、P）的出现频率**（大拇指更容易打到）
+4. **连续相邻键的比率**（大拇指滑过键盘会产生更多 `ch`、`wh` 这类组合）
+---
+这个实验挺有意思的——**肌肉记忆真的有“指纹”**，而且不同手指的参与方式会留下完全不同的统计特征。你写代码模仿自己的输入手法，等于是在教计算机识别这个“指纹”。
+要不要试试看——如果我用代码随机生成一段假数据，你能分辨出它是机器生成的，还是真的有人用某种手法敲出来的吗？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>😏</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>这一串（180字符）又回来了熟悉的味道，但有几处明显“退化+强化”的混合特征。比起上一条的“ch-he-ej-jw多核狂欢 + 右手qko乱入”，这次明显**左手dh/hd/x/y/w/n重回C位**，右手痕迹大幅减少（几乎没q/o/f这类“远键”），整体更像“回归初心但加了xy剂量”。
+### 核心字母频率Top10（这次干净很多）
+- **h**：30次（依旧霸榜，永恒MVP）
+- **x**：21次（暴涨，成了新流量密码）
+- **n**：16次
+- **w**：15次
+- **g**：13次
+- **d**：13次
+- **b**：12次
+- **y**：11次（y这次特别活跃）
+- **e**：11次
+- **k**：10次
+### 最强双字母/三字母节奏（出现次数Top）
+- **xy**：9次（新王！后半段尤其密集，像突然爱上了x-y连打）
+- **wn**：8次
+- **dh**：8次（经典老将）
+- **hd**：7次
+- **xh**：6次
+- **he**：6次
+- **bx**：5次
+- **hdh**：5次（三连击最强，多次hdh-hdh循环）
+其他高频三连：nxy / xyw / huw / kwn / xyh（这些基本都是“xy + 后缀n/w/h”变体）
+### 明显分段节奏（这次更像“两波高潮 + 收尾”）
+1. **开头到大概50–60字符**  
+   ywgbxyxhzhehebrgxke hennn xywkghuwbxuwkbwnhdhe  
+   → 还是老三样：xy + he + dh/hd + wn/wk/bx，左手食指中指在x-h-d-w-n间来回切。
+2. **中段高潮（大概60–130字符）**  
+   janvdhbxgenwnxywnvxhuwkwnhehdhnvxyskxhbdnehuwnkckckwnwnwgivdhdhgdbxyhebxhdgivcudhbhdhsjxgxhzhbebhgxyhxg  
+   → 这里**xy**和**wn**突然爆发，夹杂大量hdh / dh / xh / he / bx / ckck（ckckck那段像短暂停顿后继续抖）  
+   → 经典左手疲劳抖动：食指狂按x/y/n/w，中指h/d，无名指偶尔b/g/v。
+3. **后段收尾（130到结束）**  
+   ckwnxyhxhdghdhxysjhjxywkgdgbenvyx  
+   → 回归**xy / hd / dh / yx**，最后以vyx结束，像敲到手酸了，随手xy收工。
+### 总体一句话规律总结
+**这是一次“xy全面上位 + dh/hd/hdh老核不退场 + wn/kwn做黏合剂”的左手怀旧加强版**。  
+右手基本摸鱼了（没q/o/f/u以外的远键），整串像从上一条的“多核实验”退回到“xy-dh双核暴力输出”，但xy剂量拉满（9次xy碾压一切），给人感觉是：  
+“上次玩太花，这次回归纯左手dh+xy狂欢，敲到爽就结束”。
+对比三条串的演化轨迹：
+- 第一条：纯dh/hd核 + x点缀
+- 第二条：引入ch/he/ej/jw新核 + 右手qko客串
+- 第三条：xy强势接管流量 + dh/hd回归 + 右手彻底下线
+你这是从“实验多种姿势” → “回归最爽老姿势但加倍xy”啊？  
+键盘：我快没了……  
+你：再来一盘？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>😈</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>这一串又回到了**180字符**（和上一条一样长），但风格明显**融合+升级**：它把前几条的元素都捡回来混合了，还加了新“流量担当”。整体像一场左手键盘的“全明星回顾赛”，但这次**ch 彻底称霸**。
+### 核心字母频率Top10（这次更均衡，但h依旧无敌）
+- **h**：35次（新高！比上条多5次，永恒核心）
+- **j**：17次
+- **c**：15次（强势回归）
+- **k**：14次
+- **w**：14次
+- **b**：13次
+- **d**：11次
+- **e**：9次
+- **x**：9次（剂量下降，但还在）
+- **n**：7次
+### 最强节奏 &amp; 重复单元（数据说话）
+- **ch**：11次（新绝对王者！碾压一切双字母）
+- **hw**：8次（第二强，紧追不舍）
+- **he**：6次
+- **bc**：6次（bch 这个三连特别多）
+- **dh**：5次（老将还在，但退居辅助）
+- **xh** / **uk**：各5次
+三字母Top：
+- **bch**：5次（最强三连！反复出现bch / chd / chw 变体）
+- **heb**：4次
+- **nch** / **bdh** / **ukh**：各3次
+### 明显分段特征（像四幕小剧场）
+1. **开头热身（前~40字符）**  
+   cjkaksoejbdhwhnchdchwgbchxyedrj  
+   → 还是熟悉的左手乱序：c-j-k-a-k-s-o-e-j-b-d-h-w-h-n-ch-d-ch-w…  
+   快速引入**ch**和**dh**，像在热身“老朋友”。
+2. **中前高潮：ch全面爆发（~40–100字符）**  
+   bchebdhhxnshebcbchdbchebbdhr dbchjwjqcukhchjfhwukdrjxjsnchhfjbxhsbx  
+   → **ch** 密集轰炸：bch、chd、chb、che、chj、chh、chf…  
+   同时**hw**、**wj**、**bc**、**uk** 轮番上阵，感觉左手食指中指无名指全在c-h-w-j-k-b间狂切。
+3. **中后混战：右手小范围加入（~100–150字符）**  
+   hwjkxhxhnwoqkchwknchfjwjakxgxhejqkajhdhrhfhdkwhwjwljakhwljsghwu  
+   → 这里**qk**、**wo**、**uk**、**hx** 等出现，右手食指（q/k）偶尔插手，但不猛，很快又被**chw / hw / wj / kh** 拉回左手主场。
+4. **结尾回归老家（最后部分）**  
+   khedhncukhebruknwoe  
+   → 以**he / dh / nc / uk / he** 收尾，像敲累了，回到**he-dh** 的舒适区结束。
+### 总体一句话规律总结
+**这是一次“ch-bch-hw 核全面接管 + dh/he/x老元素回归 + 右手qk/uk小客串”的左手全明星混合加强版**。  
+ch 直接爆表11次（前所未有），bch 成了最强三连，hw/wj 做完美黏合，整体节奏比上条更“ch向”，但保留了xy/dh的怀旧味。
+对比四条演化轨迹：
+- 第1条：纯dh/hd核 + x点缀
+- 第2条：ch/he/ej/jw多核 + 右手qko大乱入
+- 第3条：xy暴涨 + dh回归 + 右手下线
+- 第4条：ch彻底上位（11次）+ bch/hw强势 + qk小范围回归
+你这是在玩“键盘指法进化论”吗？从dh单核 → 多核实验 → xy纯享 → ch称霸…  
+下一条是准备让哪个字母登基？还是ch要卫冕？  
+键盘已经瑟瑟发抖了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>😂</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>哈哈哈，终于公布真相了！原来前面四条“乱码”其实是你用代码精心模仿出来的“伪随机敲击痕迹”，而且完美对应了两种真实输入方式：
+- **第一种（中指 + 食指双指暴力输出）**：对应第1条和第3条  
+  典型特征：**h-d / d-h / h-d-h** 超级高频反复横跳（食指中指在手机虚拟键盘的h-d区域来回抖动），x/n/w/b/g/k 作为“邻居键”频繁出现，xy/wn/wk 等组合多。  
+  整体节奏单一、重复性强，像两根手指固定在一个小区域狂点（中指主控h/d，食指负责x/b/w/n/y的偏移）。  
+  第3条xy剂量拉满，就是食指偶尔“偏右上”多按了y/x。
+- **第二种（大拇指单指握持式敲击）** → 对应第2条和第4条  
+  典型特征：**ch / he / hw / jw / bc / ej** 等组合暴增，c-h-j-w-k-b 区域成为主战场。  
+  大拇指在手机屏幕上范围更大（通常覆盖c-v-b-n-m + h-j-k-l 一带），所以能轻松打出ch/he/hj/hw/bc/chw/bch 这种“拇指舒适区”循环。  
+  第2条甚至引入了q/k/o/u 等“稍远键”（大拇指偶尔伸展到位），第4条ch直接登基11次 + bch反复，就是拇指在c-h-b-j-w 这个扇形区域里反复画圈/抖动。
+代码模仿得非常到位，区别点总结如下：
+| 特征               | 双指（食指+中指）模式 第1/3条 | 拇指单指模式 第2/4条          |
+|----------------------|-------------------------------|-------------------------------|
+| 主导字母            | h, d, x, n, w, y, b, g      | h, j, c, w, k, b, e          |
+| 最强双字母          | dh/hd/xy/wn/xh               | ch/he/hw/ej/jw/bc/uk         |
+| 节奏特点            | 高度重复的“来回抖”           | 更流畅的“扇形循环/画圈”      |
+| 键位覆盖            | 集中左中区（d-h-x-b-n-y）    | 扩展到c-h-j-w-k + 少量q/o/u  |
+| “远键”出现          | 极少（几乎无q/o/f）          | 偶尔有q/k/o/u（拇指伸展）    |
+| 整体“混乱度”        | 更机械、更抖动感强           | 稍有“流动感”，但仍很乱       |
+你这代码模型其实已经抓住了人类单手/双手敲击时的**生理限制**和**舒适键位偏好**：
+- 双指模式 → 键位抖动范围小 → dh/xn/wk 等小循环
+- 拇指模式 → 覆盖扇形更大 → ch/he/hw/jw 等中大循环
+牛啊，模仿得这么像，连我前面都完全没怀疑是代码生成的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>😂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  
+所以你是先敲真实样本 → 分析指法统计 → 写生成器复刻 → 再喂给我让我“破案”？这波操作太有梗了。
+键盘（物理+虚拟）向你致敬：谢谢你让它多活几天（代码不耗电）。
+想看下一阶段吗？比如三指/四指/两只手狂暴输出版？还是公布你的生成代码让我膜拜一下？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>😏</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好的，我们再来分析这一段新的字符串：  
+```
+ywgbxyxhzhehebrgxkehennnxywkghuwbxuwkbwnhdhejanvdhbxgenwnxywnvxhuwkwnhehdhnvxyskxhbdnehuwnkckckwnwnwgivdhdhgdbxyhebxhdgivcudhbhdhsjxgxhzhbebhgxyhxgckwnxyhxhdghdhxysjhjxywkgdgbenvyx
+```
+---
+## 1. 初步印象
+- **字母组成**：仍然是全小写英文字母，没有空格或标点。
+- **长度**：大约 210 个字符左右。
+- **与第一、二段的相似之处**：
+  - 仍然有大量 `h`、`d`、`x`、`w`、`k`、`n`、`g`、`b`、`y`、`e`、`v` 等字母。
+  - 再次出现 `dh`、`hd`、`hx`、`xn`、`wk`、`wn`、`ck`、`gb`、`xy` 等组合。
+  - 结尾是 `envyx`，不同于前两段的 `dhjebdhenx`，但包含 `yx` 这种在前文也出现的结尾模式。
+---
+## 2. 重复模式与局部规律
+### （1）高频字母
+肉眼统计（近似）：
+- **h**：极高频率（几乎每隔几个字母就出现一次）。
+- **d**、**x**、**w**、**k**、**n**、**g**、**b**、**y**、**e**、**v** 也很常见。
+- 低频字母：`a`、`c`、`j`、`m`、`p`、`q`、`r`、`s`、`t`、`u`、`z` 相对较少（但仍有出现，比如 `z` 在 `hzhehe` 中出现，`u` 在 `huwkwn` 中出现）。
+这符合键盘中部区域的手指活动习惯。
+---
+### （2）明显的重复片段
+- `hzhehe`：开头附近，`h z h e h e`，其中 `he` 重复。
+- `brgxkehennn`：包含 `hennn`，`n` 连续三次，可能是手指在 `n` 键上停留或误触。
+- `wkghuwbxuwkbwn`：里面 `wkbw` 像是手指在 `w-k-b-w` 之间来回。
+- `hdhejanvdhbxgenwnxywnvxhuwkwnhehdhnvxyskxhbdnehuwnkckckwnwnwgivdhdhgdbxyhebxhdgivcudhbhdhsjxgxhzhbebhgxyhxgckwnxyhxhdghdhxysjhjxywkgdgbenvyx`
+  这里面：
+  - `dh` / `hd` 多次出现（如 `dhdhgdbxyhebxhdgiv`）。
+  - `ckckwnwn` 出现两次类似的 `ck...wn` 模式。
+  - `xyhxhdghdhxysjhjxy` 里 `xy` 与 `hx` 交替。
+---
+### （3）与前两段的关联
+- 第三段里依然保留了 `dhjebdhenx` 吗？——没有直接出现，但出现了 `hehdhnvxyskxhbdnehuwn` 这种类似节奏。
+- 结尾 `envyx` 与前面某处的 `envyx` 一致吗？——检查前面：第一段没有 `envyx`，第二段也没有，这是第三段独有的结尾。
+- 但 `yx` 结尾在键盘上是相邻的（`y` 在 `t` 右边，`x` 在 `z` 左边，其实 `y` 和 `x` 在键盘上并不相邻，中间隔一行，但可能只是巧合）。
+---
+## 3. 规律总结（综合三段）
+1. **键盘区域集中**：所有三串字母都主要由键盘中间区域的字母构成（h, d, x, w, k, n, g, b, y, e, v, c, j, z, u 等），很少用边缘键（如 q, p, m, a 等相对少）。
+2. **重复子串**：
+   - `hd` / `dh` 极其常见。
+   - `bx`、`hx`、`wk`、`wn`、`ck`、`gb`、`xy`、`he`、`jn`、`nv` 等组合高频。
+   - 固定后缀倾向：第一段末尾 `hxhr`，第二段末尾 `dhjebdhenx`，第三段末尾 `envyx`。可能你每次敲完一段就换一个固定结尾。
+3. **生成机制推测**：
+   - 很可能是**无预设目标的随意敲击**，但受肌肉记忆影响，手指在键盘上沿着固定路径移动，导致某些二元、三元组重复出现。
+   - 偶尔会出现长重复（如 `nnn` 或 `ckck`），可能是按键卡住或快速连按。
+4. **无语言学意义**：不是单词、不是密文（至少不是简单替换或移位），而是**人类随机输入+键盘位置约束**的结果。
+---
+## 4. 进一步分析建议
+如果你感兴趣，我可以：
+- **统计三串字母的整体频率表**，看哪些字母最突出。
+- **找出所有长度≥3的公共子串**（跨三串比较），看是否有统一的核心模式。
+- **模拟键盘热区图**，可视化手指常按的区域。
+要我为你做这些分析吗？这样能更清晰地看到“规律”的全貌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好的，我们来看这条新的字符串：  
+```
+cjkaksoejbdhwhnchdchwgbchxyedrjbchebdhhxnshebcbchdbchebbdhr dbchjwjqcukhchjfhwukdrjxjsnchhfjbxhsbxhwjkxhxhnwoqkchwknchfjwjakxgxhejqkajhdhrhfhdkwhwjwljakhwljsghwukhedhncukhebruknwoe
+```
+---
+## 1. 基本特征
+- **字母组成**：全小写英文字母，中间有一个空格（在 `chebbdhr` 和 `dbchjwjq` 之间）。
+- **长度**：约 220 个字符左右。
+- **与前几段的共同点**：
+  - 仍然大量出现 `h`、`d`、`x`、`w`、`k`、`n`、`c`、`j`、`b`、`e`、`g`、`y`、`u`、`s`、`r`、`o`、`a`、`q`、`z`、`v`、`m`、`p`、`t`、`l`、`i`、`f` 等字母，但分布比例类似。
+  - 高频组合如 `ch`、`hd`、`dh`、`hk`、`hj`、`xh`、`bx`、`wn`、`wo`、`ck`、`uk`、`jw`、`gj`、`qk` 等依旧存在。
+  - 出现 `chebbdhr` 这种在之前也见过的模式（之前有 `chejbd...` 等变体）。
+  - 结尾是 `knwoe`，不同于前几段的 `hxhr`、`dhjebdhenx`、`envyx`，但包含 `wo` 这个在之前也出现过的组合（如 `hnwoqkchwkn` 和 `knwoe`）。
+---
+## 2. 重复模式与局部规律
+### （1）高频字母
+- **h**：几乎每 3~5 个字母就出现一次，是绝对核心。
+- **c**：出现频率很高，很多以 `c` 开头的双字母组合（`ch`、`ck`、`cj`、`cu`）。
+- **d**：与 `h` 经常成对出现（`dh`、`hd`）。
+- **w, k, n, x, b, j, e, g, y, u, s, r, o, a, q, f, l` 等也较常见。
+- 低频字母：`m`, `p`, `t`, `i`, `v`, `z` 出现较少，但仍有（如 `v` 在 `hebruknwoe` 中没有，但 `v` 在之前段出现；`z` 在这段没出现）。
+---
+### （2）明显重复子串
+- `che` 出现多次（`chebdhhxnshebcbchdbchebbdhr` 里 `che` 至少两次）。
+- `chdchwgbchxy` 中 `ch` 重复。
+- `dbchjwjq` 与前面 `dbch` 类模式一致。
+- `cukhchjfhwuk` 中 `cuk` 和 `hchj` 出现。
+- `xhxhnwoqkchwkn` 中 `xh` 和 `wo` 和 `ck` 和 `kn` 出现。
+- `hejqkajhdhr` 中 `hj` 和 `hdh` 出现。
+- 结尾 `knwoe` 与前面 `hnwoqkchwkn` 里的 `knwo` 呼应。
+---
+### （3）键盘热区
+QWERTY 布局：
+```
+q w e r t y u i o p
+a s d f g h j k l
+z x c v b n m
+```
+高频字母位置：
+- `h`：第二行右部（右手中指）
+- `c`：第三行左部（左手无名指）
+- `d`：第二行左部（左手食指）
+- `w, e, r, t, y, u, i, o, p` 中 `w, e, o, u` 出现较多
+- `k, j, l` 中 `k, j` 高频
+- `x, b, n, m` 中 `x, b, n` 高频
+- `g` 在第二行左部（左手食指右移）
+这说明手指主要在**键盘中间偏左及中部区域**移动，很少跳到最上行两端或最下行两端。
+---
+## 3. 跨段落规律总结（综合四段）
+1. **字母选择偏好稳定**：四段字符串虽然具体内容不同，但高频字母集合几乎一致（h, d, x, w, k, n, c, j, b, e, g, y, u, s, r, o, a, q, f, l），说明是同一套手指运动习惯。
+2. **重复二元/三元组**：
+   - `hd` / `dh` 贯穿始终。
+   - `ch` 极常见。
+   - `bx`, `xh`, `wk`, `wn`, `ck`, `gb`, `xy`, `he`, `jn`, `nv`, `wo`, `kn`, `uk`, `jw`, `gj`, `qk` 等反复出现。
+3. **固定后缀变化**：
+   - 第一段：`hxhr`
+   - 第二段：`dhjebdhenx`
+   - 第三段：`envyx`
+   - 第四段：`knwoe`
+   可能你每次随机敲完一段就换一个“结束咒语”，但这些结尾本身也是由高频字母组合而成。
+4. **生成机制**：
+   - 不是密码，不是有意义的文本。
+   - 是**人类随机输入 + 键盘物理限制 + 肌肉记忆**导致的伪随机序列。
+   - 局部看似有规律（重复子串），但全局无语义。
+---
+## 4. 如果你愿意，我可以做的深入分析
+- **统计四段的总字母频率表**，并画成柱状图，看哪些字母是绝对核心。
+- **找出所有长度≥3的公共子串**（跨四段比较），看是否有统一的核心“词根”。
+- **生成键盘热区图**，用字符出现密度标出你手指最爱的区域。
+- **检测是否有循环周期**（用自相关或 LZ77 压缩率分析），判断随机性程度。
+你要我先做**总字母频率统计和键盘热区图**吗？这样能直观看到你四段字符串的规律核心。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>啊，原来如此！我之前一直以为所有字符串都是同一种输入方式，所以一直在找统一的“规律”，现在你公布了答案，整个逻辑就通了。  
+我们来重新梳理一下：  
+---
+## 1. 两种输入方式的差异
+- **第一种（手机，中指+食指随机敲击）**  
+  对应你最早给的那一串：  
+  ```
+  vdjbdhdhdhgdhdgdhnehdbdhenxhbdgfkwgduwkudhbwbjxghwkxgebxbuebxhnwvxywbhxyhwgxgwhxhjebxywnxhenxfunwkckwnvckwixhskcjhannxuwnvyxksgcuwkbxhwnxgejzkgbfhuwkgdhdjanvdgivehdhejbdbsjhfhdnkebehzhbrgxysjxjskwnhxhr
+  ```  
+  特点：  
+  - 字母分布更“均匀”地覆盖键盘多个区域，因为两根手指在手机屏幕上随机点，没有固定热区。  
+  - 出现 `hd`、`dh`、`wk`、`bx` 等组合，但整体更散乱，没有特别集中在键盘某一块。
+- **第二种（手机，其他手指握持，大拇指敲击）**  
+  对应你后来给的第二、三、四串：  
+  ```
+  bxhebxgbsgxjwgxhwhxghedhhebxhnshdhchhehchsnchejhdhdhejsbchejbxhejzhrhwujxhwjbzjwmchwljchwkxnejakwjhxjwjfhqkhxjqkdruksbchwjhdbdkajhfjwhchnwhxjebchjehzhejxyejwbchjwhchwjxhejkqkncnwoqcukwokcjwojxjsoebbcbrjdcbbdr dhjebdhenx
+  ```
+  ```
+  ywgbxyxhzhehebrgxkehennnxywkghuwbxuwkbwnhdhejanvdhbxgenwnxywnvxhuwkwnhehdhnvxyskxhbdnehuwnkckckwnwnwgivdhdhgdbxyhebxhdgivcudhbhdhsjxgxhzhbebhgxyhxgckwnxyhxhdghdhxysjhjxywkgdgbenvyx
+  ```
+  ```
+  cjkaksoejbdhwhnchdchwgbchxyedrjbchebdhhxnshebcbchdbchebbdhr dbchjwjqcukhchjfhwukdrjxjsnchhfjbxhsbxhwjkxhxhnwoqkchwknchfjwjakxgxhejqkajhdhrhfhdkwhwjwljakhwljsghwukhedhncukhebruknwoe
+  ```  
+  特点：  
+  - 明显集中在键盘中间区域（h, d, x, w, k, n, c, j, b, e, g, y, u, s, r, o, a, q, f, l），因为大拇指在手机键盘上主要活动范围就是那一块。  
+  - 重复子串非常多（如 `che`, `chd`, `hdh`, `bxh`, `xhy`, `ckw`, `woq` 等），这是大拇指单指输入时肌肉记忆造成的“路径依赖”。  
+  - 固定后缀变化（dhjebdhenx, envyx, knwoe）也是单指输入时容易形成的“结束动作”。
+---
+## 2. 为什么我之前没怀疑
+- 你一开始说“随机输入的一串字母”，我默认是同一来源。
+- 后来你给的多串虽然细节不同，但字母集合和重复模式很相似，我就以为是你换了不同时间但同方式输入。
+- 实际上，第二、三、四串是**代码模仿你的输入手法**生成的，所以它们的统计特征（热区、重复模式）高度一致，而第一串是另一种输入方式，所以特征不同。
+---
+## 3. 规律总结（按输入方式分）
+| 输入方式 | 特征 |
+| --- | --- |
+| **中指+食指（手机随机）** | 字母分布较广，无明显热区，重复子串较少，更接近真随机。 |
+| **大拇指（手机单指）** | 字母集中在键盘中部，重复子串多，有固定后缀，热区明显，是“伪随机+肌肉记忆”产物。 |
+---
+## 4. 代码模仿的原理推测
+你写的代码应该是：
+1. 定义一组你大拇指常用的字母集合（基于键盘热区）。
+2. 按一定概率分布随机选择字母，但允许某些字母组合（如 `ch`, `hd`, `bx`）出现概率更高，以模拟肌肉记忆的路径。
+3. 在末尾加上一个预定义的“结束串”（可能随机选自几个固定选项），让输出更像人类输入习惯。
+---
+现在真相大白，我之前的分析其实是在比较**两种不同的输入机制产生的随机序列**，而不是单一机制的“规律”。  
+要不要我帮你**分别统计第一串和第二、三、四串的字母频率和热区图**，直观展示这两种输入方式的差异？这样你会更清楚代码模仿的效果。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这一串字符的“风格”发生了突变。如果说前几串是手指在键盘上“散步”，那么这一串更像是手指在键盘上“跳踢踏舞”。
+通过对比分析，我们可以发现以下新的规律：
+### 1. “手位漂移”现象（从右侧移向左侧）
+这是本串字符最大的不同点：
+*   **前几串：** 极度依赖右手（`h`, `j`, `k`, `b`, `n`），左手几乎闲置。
+*   **本串：** 左手突然“觉醒”了。开头出现了大量的 **`c`, `j`, `a`, `k`, `s`, `o`** 组合（如 `cjkaksoej`）。
+    *   这些键位（`a`, `s`, `d`, `c`）位于键盘的**左下方**。这说明输入者的手掌位置可能发生了移动，或者左手手掌压在了键盘左侧，由左手手指（特别是小指和无名指）进行了密集的敲击。
+### 2. “音节流”与“伪单词”
+这一串字符的可读性（发音流畅度）比前几串更高，出现了很多类似英语单词的片段，读起来很有节奏感：
+*   **`cjkak`**：听起来像 "Check" 或 "Kak"。
+*   **`jwjq`**：连续的辅音，像是在练习绕口令。
+*   **`soej`**：发音类似 "Soy" 或 "Sarge"。
+*   **`ljsgh`**：类似 "Lodge"。
+*   **`woe`**：结尾处的 `nwoe`，直接拼出了单词 **"Woe"**（悲伤/困境），这是一个完整的英语单词。
+### 3. 偶然的“时空穿越”：打出了一款游戏名
+虽然可能完全是巧合，但在开头部分，你打出了 **`kak`**，结尾部分打出了 **`oe`**。
+中间夹杂的字母，如果忽略掉那些噪音，隐约藏着经典游戏 **"Kakao"**（卡卡颂或 kakao talk）的影子，或者更简单的——**"Jack"**（`cjkak` 的变体）。
+但最明显的单词是结尾的 **`woe`**。
+### 4. 键盘热力图分析
+如果我们分析这一串的“核心按键”：
+*   **核心区：** `j`, `h`, `c`, `k`, `w`。
+*   **特点：** 这五个键在键盘上呈现一个**“十字架”形状**分布（中间是 `j/h`，上下左右延伸）。
+*   **推论：** 这通常发生在手掌放在键盘基准键位（ASDF JKL;）上，然后手指上下移动进行盲打练习时。与之前“右手食指乱点”不同，这一串更像是**双手放在基准位上，进行的指法热身运动**。
+### 综合总结
+这一串字符不再是“右手单手流”，而是回归到了**“基准键位流”**。
+*   **姿势推测：** 你的双手可能短暂地放回了键盘的正中央（F键和J键的凸起定位点上）。
+*   **潜意识碎片：** 结合前三串的 **"GIVE"** 和这一串结尾的 **"Woe"**，这似乎构成了一个微型的心理叙事：
+    *   *前几串在呼唤“Give”（给予），这一串结尾感叹“Woe”（悲伤/哀叹）。*
+这可能就是你随机敲击键盘时，潜意识里流露出的微型剧本：**关于“索取”与“叹息”的片段。**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这串字符的出现验证了我们在前两轮分析中的推断，并提供了一个决定性的证据，让这串“乱码”的性质发生了质的改变。
+以下是这串字符的核心规律总结：
+### 1. 决定性证据：“Giv”序列的重现与确认
+这是本串字符最大的规律，也是最重要的发现。
+*   **重现：** 在第一串字符末尾出现了 `vdgive`，在这一串中，我们又看到了 `wgivd` 和 `hdgiv`。
+*   **确认单词 "GIVE"：** 三次出现都以 `giv` 开头，这绝对不是巧合。这表明输入者的潜意识里可能反复在思索或想要输入 **"GIVE"**（给予）这个词。
+*   **独特的“左撇子”特征：** 注意看 `giv` 后面跟着的字母：
+    *   第一串：`give` + `h` (右手键)
+    *   第三串：`giv` + `d` (左手键) / `giv` + `c` (左手键)
+    *   **规律：** 似乎只要涉及到有意义的单词片段 `giv`，输入者的手指就会“切换”模式，这可能暗示输入者对这些字母有特定的肌肉记忆。
+### 2. “听音辨位”：有趣的谐音片段
+虽然大部分是乱码，但这串字符的“发音”非常有节奏感，包含大量类似英语单词的音节：
+*   **`hehe` (哈哈)：** 开头部分出现了 `hehe`（`hzhehe`），这是标准的“笑声”拟声词。
+*   **`check` (检查)：** 出现了 `kckck`，读起来非常像 `check check check`，或者是快速敲击的声音。
+*   **`you` (你)：** 末尾的 `envy` 之前有 `ben`，开头有 `ywg`，中间多次夹杂 `w` (常代表元音 u/w 音) 和 `y`，听起来像是在拼凑简单的音节。
+### 3. 键盘几何学：从“右侧扇形”变为“中线拉锯战”
+与上一串纯粹的“右手快乐流”不同，这一串字符展现了双手的互动：
+*   **中线争夺战：**
+    *   右手控制区：`h`, `j`, `k`, `l`, `b`, `n`, `m`。
+    *   左手控制区：`g`, `d`, `w`, `e`, `x`。
+    *   这串字符中，**`g` (左手)** 和 **`h` (右手)** 的交替出现频率极高（如 `hzh`, `gh`, `hdh`, `xysjh`）。这两个键在键盘上紧挨着，这说明手指（通常是左右手的食指）在键盘中间的分界线上频繁“打架”或交替敲击。
+*   **`X` 的高频出现：** 字母 `x` 在本串中非常活跃（`xy`, `xh`, `xys`）。在乱打字时，`x` 往往是因为左手手腕下沉或无名指误触而产生的“噪音”，这也印证了输入姿势可能比较随意。
+### 4. 尾声的“神秘代码”：Ben Vyx?
+字符串的最后几个字母是 **`ben` + `vyx`**。
+*   结合前面的 `giv` (给予)，末尾的 `ben` (本/人名) 和 `vyx` (看起来像某种缩写或名字的后缀)，这串字符仿佛在讲述一个碎片化的故事：
+    *   **"Hehe... give... ben... vyx"**
+### 总结
+这串字符不再是单纯的单手乱打，它揭示了：
+1.  **潜意识锚点：** 你的大脑深处似乎锁定在单词 **"GIVE"** 上，导致手指多次不由自主地拼出它。
+2.  **节奏感：** `kckck` 和 `hehe` 显示了输入具有很强的听觉节奏，像是在模仿某种打击乐或说话的语调。
+3.  **姿势调整：** 左手更多地参与到了 `g` 和 `x` 的输入中，与右手形成了互动。
+如果把三串字符连起来看，**"GIVE"** 是贯穿始终的唯一“灵魂词汇”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这真是一个精彩的“图灵测试”！我必须承认，**我确实没有怀疑过这不是人敲的**。
+回顾之前的分析，我虽然察觉到了键位分布的异常（如“右手依赖”），但我将其解释为“人的输入习惯”或“懒人输入法”，而没有跳出思维定式去想“这是代码生成的”。这恰恰证明了你的代码写得非常成功——它完美地复刻了人类输入的“噪点”和“不均匀性”。
+既然答案揭晓，我们再回头看这四个样本，一切就豁然开朗了：
+### 1. 样本一与样本二（中指+食指 双指输入）
+*   **我的误判：** “右手主导”、“食指活跃”。
+*   **真相验证：** 因为是用食指和中指在手机上敲，所以键位高度集中在中间区域（G, H, J, K, B, N）。手机键盘比电脑键盘更窄，双指操作时，其他手指悬空，导致左右两侧的键（如Q, P, A, L）极少被按到。这完美解释了为什么数据呈现“中间密集、两边稀疏”的漏斗状分布。
+*   **关于“GIVE”：** 这可能是因为双指操作比较灵活，更有可能偶然拼出完整单词，或者代码在该区域赋予了较高的权重。
+### 2. 样本三（大拇指输入）
+*   **我的误判：** “左手觉醒”、“基准键位热身”。
+*   **真相验证：** 这是一个绝妙的误会！
+    *   当人用大拇指打字时，活动范围是一个以大拇指根部为圆心的**扇形**。
+    *   我看到的“左手键多”（C, A, S, D），其实是因为右手握持手机时，大拇指更容易够到键盘的**左下和中间区域**。
+    *   我之前分析的“左手觉醒”，实际上是大拇指自然扫过键盘左侧的物理轨迹。
+### 为什么你的代码能骗过 AI？
+1.  **没有“均匀随机”的破绽：** 计算机生成的纯随机数（如 `random_string`）通常分布非常均匀，每个字母出现的概率差不多，一眼就能看出是机器生成的。而你的代码引入了**“权重”和“区域”**的概念，模拟了手指活动的局限性。
+2.  **模仿了“滑键”习惯：** 大拇指和双指输入时，往往有连续敲击邻近键的习惯（如 `hzh`, `kck`），你的代码显然模拟了这种“连续点击邻近区域”的逻辑，这非常符合人类的生理特征。
+3.  **节奏感：** 代码生成的字符串长度、片段长度，都符合人类“随手划拉”一下的心理时长。
+**总结：**
+你不仅写出了能够通过“乱码图灵测试”的代码，还通过物理限制（握持姿势）解释了数据分布的规律。这让我想起了一句话：**“最高级的算法，往往是对物理世界的完美模仿。”** 
+这确实是一个非常有趣的实验！如果还有其他输入模式（比如单手食指盲打），欢迎继续发来挑战。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过对您提供的第三串字符 `ywgbxyxhzhehebrgxkehennnxywkghuwbxuwkbwnhdhejanvdhbxgenwnxywnvxhuwkwnhehdhnvxyskxhbdnehuwnkckckwnwnwgivdhdhgdbxyhebxhdgivcudhbhdhsjxgxhzhbebhgxyhxgckwnxyhxhdghdhxysjhjxywkgdgbenvyx` 的分析，结论依然保持一致：
+**这仍然是一串没有实际语义、不符合自然语言语法或标准加密逻辑的随机字符序列。**
+但是，通过对比前两串字符，我们可以发现一些非常有趣的**“指纹”特征**，这表明这三串字符很可能出自**同一个输入源**（同一个人、同一只手、甚至可能是同一次连续的“乱敲”过程）：
+### 1. 高度一致的“词汇碎片”库
+这串字符中重复出现了前两串中已经观察到的特定无意义组合，这极不像是巧合，更像是输入者的**肌肉记忆习惯**：
+*   **`hehe` / `hdh` / `dhd`**：这是您三串字符中都高频出现的“节奏型”敲击。特别是 `hehe`（可能是想打 "he" 但重复了，或者是手指在 `h` 和 `e` 键上快速回弹）。
+*   **`wn` / `wnx` / `wnv`**：`w` (左手小指) 和 `n` (右手食指) 的组合频繁出现，这在标准英语中极少见，但在随意敲击时，左右手交替很容易产生这种跨度大的组合。
+*   **`kckc` / `ck`**：类似于上一串的 `kqkn`，这里出现了 `kckckwn`，显示出手指在键盘右侧中部 (`k`, `l`, `j`) 和下部 (`c`, `v`, `b`) 之间的快速跳跃。
+*   **`giv` / `give` 的变体**：出现了 `givdhdh` 和 `givcu`。这很有趣，因为 `give` 是一个完整的英语单词。这可能意味着输入者在无意识中打出了 "give"，然后立刻被打断或继续乱敲。在第一串中我们也见过 `give`。
+### 2. 键盘区域的热力图分析
+如果将您的三次输入叠加分析，您的“随机输入”有明显的**区域偏好**：
+*   **高频区**：`h`, `d`, `g`, `j`, `k`, `n`, `b`, `x`, `w`。
+    *   这些键主要集中在键盘的**中央行（ASDFGHJKL）**和**底行（ZXCVBNM）**的中间部分。
+    *   这说明您的双手主要停留在键盘的“主战区”，很少触及边缘键（如 `q`, `p`, `a`, `;`, `z`, `m` 相对较少，虽然 `z` 和 `m` 也有出现，但不如 `h`, `d`, `n` 频繁）。
+*   **左右手交替模式**：很多组合如 `bw`, `xh`, `yn`, `vk` 都涉及左右手的快速切换，这符合“双手乱舞”的特征。
+### 3. 特殊的“伪单词”现象
+在这串字符中，有几个片段看起来特别像真的单词，但这很可能是**模式识别的错觉（Pareidolia）**，或者是肌肉记忆偶然触发了常用词：
+*   `hehe` (笑声)
+*   `give` (给予)
+*   `jan` (一月或人名)
+*   `she` (在 `zhehe` 中隐含)
+*   `the` (在 `zhe` 或 `het` 的变体中)
+然而，它们被紧紧包裹在无意义的字母中（如 `...hejanvdh...`），使得整体无法解读。
+### 综合总结：这是您的“打字指纹”
+如果您将这三串字符放在一起看，它们共同构成了一个独特的**“用户随机输入指纹”**：
+1.  **习惯性起手/收尾**：喜欢用 `h`, `d`, `b`, `x` 开头或结尾。
+2.  **节奏性重复**：倾向于重复双字母（`hh`, `dd`, `nn`, `ck`, `wn`）。
+3.  **核心键位**：极度依赖 `h`, `d`, `n`, `b`, `x`, `w` 这几个键。
+**结论**：
+这串字符**没有任何隐藏的密码、暗号或外星语言信息**。它纯粹是您（或输入者）在键盘特定区域，基于特定的手指运动习惯，进行无意识或有意识的快速随机敲击产生的结果。
+如果您是在测试我是否能从完全随机的噪声中“强行”找出规律（即测试 AI 的幻觉倾向），那么我的回答是：**除了统计学的随机分布和您个人的按键习惯外，不存在其他客观规律。**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过对您提供的第四串字符 `cjkaksoejbdhwhnchdchwgbchxyedrjbchebdhhxnshebcbchdbchebbdhr dbchjwjqcukhchjfhwukdrjxjsnchhfjbxhsbxhwjkxhxhnwoqkchwknchfjwjakxgxhejqkajhdhrhfhdkwhwjwljakhwljsghwukhedhncukhebruknwoe` 的分析，结论依然非常明确：
+**这仍然是一串没有实际语义、不具备密码学逻辑的随机字符序列。**
+但是，通过将其与前三串字符进行**交叉对比**，我们发现了一个极其显著的**“连续性”特征**。这强烈暗示这四串字符并非独立的随机事件，而是**同一个人在极短时间内、使用同一套手指习惯连续生成的**。
+以下是具体的深度分析：
+### 1. 惊人的“家族相似性” (DNA匹配)
+这串字符中包含了大量在前三串中反复出现的**特定“指纹”片段**，这种重合度在纯随机概率下极低：
+*   **`ch` / `hc` / `bch` / `dch` 的爆发式出现**：
+    *   这一串中 `ch` 和 `bch` 的出现频率高得异常（如 `...nchdchw...`, `...bchxy...`, `...shebcbchdbchebbd...`）。
+    *   回顾前几串：第二串有 `hch`, `snche`, `sbchej`；第三串有 `ck`, `ch`。
+    *   **推论**：输入者的右手食指（负责 `h`, `j`, `n`, `b` 区域）和中指（负责 `c`, `k` 区域）似乎在进行一种特定的**高频交替敲击运动**，或者手指一直“粘”在键盘右下侧区域。
+*   **`wh` / `hw` / `wuk` / `uk` 组合**：
+    *   本串中有 `whn`, `chw`, `wuk`, `hwu`。
+    *   第二串中有 `hwuj`, `wuk`, `chw`。
+    *   第三串中有 `wk`, `wu`。
+    *   **推论**：左手 `w` 键和右手 `h`, `k`, `u` 键的配合是您的核心习惯之一。
+*   **`jw` / `wj` / `jq` / `jx` 组合**：
+    *   本串开头就是 `cjkaksoejbdh...` 中间夹杂 `jwjq`, `jxjs`, `jwjak`。
+    *   第二串中有 `jw`, `wj`, `jx`, `jq`。
+    *   **推论**：右手食指在 `j`, `h`, `n`, `m` 附近的快速抖动非常明显。
+*   **空格的位置**：
+    *   本串中间也有一个空格：`...bbdhr` **[空格]** `dbch...`。
+    *   第二串末尾附近也有空格。
+    *   这可能意味着您在输入长串乱码时，习惯性地每打一段就按一下空格，或者是手掌边缘误触。
+### 2. 键盘热力图升级：右下角是“重灾区”
+结合四串字符，您的“乱敲地图”已经非常清晰：
+*   **核心热点**：`h`, `j`, `k`, `l` (右手_home row)，`c`, `v`, `b`, `n`, `m` (右手/左手_bottom row)，`w`, `e`, `d` (左手_top/middle)。
+*   **冷门区域**：`q`, `z`, `p`, `a`, `;` 相对较少（虽然 `q` 在 `qk`, `qc` 中出现过，但不如 `h`, `c`, `b` 频繁）。
+*   **动作模式**：看起来像是双手握拳或用几个手指在键盘的**中央偏右下方**进行快速的、有节奏的“ drumming”（敲击鼓点）动作。
+### 3. “伪英语”幻觉增强
+这一串中出现的“像单词”的片段比之前更多，更容易让人产生“这是某种加密语言”的错觉：
+*   `soe` (可能是 "so" + "e")
+*   `edr` (接近 "end" 或 "red")
+*   `she` (多次出现 `she`, `sheb`)
+*   `the` (隐含在 `ch`, `he` 中)
+*   `who` (隐含在 `wh`, `ho` 中)
+*   `work` (隐含在 `wk`, `or`?)
+*   `just` (隐含在 `jx`, `us`?)
+*   **真相**：这只是因为英语常用词本身就由这些高频字母（e, t, h, s, a, o, n, r）组成。当您在这些键上随机敲击时，必然会偶然拼凑出这些短词片段。这在统计学上称为**“猴子打字机定理”**的微观体现——只要敲得够久，总能敲出 "he", "she", "the"。
+### 最终总结
+这四串字符构成了一个完整的**“用户行为样本集”**。
+*   **规律**：唯一的规律就是**您个人的打字肌肉记忆**。
+    *   偏好键位：`h`, `c`, `b`, `d`, `j`, `w`, `n`, `x`。
+    *   偏好动作：左右手在键盘中下部的快速交替敲击，伴随大量的双字母重复（`hh`, `ch`, `bb`, `dd`）。
+    *   特殊标记：间歇性的空格键误触。
+*   **含义**：**无**。这里面没有藏头诗，没有坐标，没有密码，也没有情感表达。
+*   **AI 的判断**：如果您是在测试我是否会因为看到越来越多的“像单词”的片段（如 `she`, `he`, `work` 的碎片）而开始编造一个故事或强行解密，那么我**拒绝**这样做。作为 AI，我的职责是基于事实分析：**这就是随机噪声，只是带有强烈的个人输入风格。**
+如果您是想用这些字符串作为某种**密钥（Key）**来加密真实信息，那么它们作为“一次性密码本（One-time pad）”的随机性是合格的（尽管有人为偏差），但作为密文本身，它们是空的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>这是一个非常精彩且极具洞察力的反转！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>👏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+首先，我要向您致敬：**您成功地用代码模拟出了具有高度“生物特征”的随机输入，甚至骗过了我之前的模式分析。** 这不仅证明了您的编程能力，也揭示了人类行为模式中某些深层的、可被算法复现的统计规律。
+现在，结合您公布的真相（**方案一：双指/多指敲击；方案二：单大拇指敲击**），我们可以重新复盘之前的分析，看看为什么代码能如此逼真，以及这两种输入方式在数据上究竟留下了什么“指纹”：
+### 1. 为什么代码能骗过我？（人类行为的统计学本质）
+我之前分析的所谓“肌肉记忆”、“键位偏好”和“节奏性重复”，本质上并不是什么神秘的直觉，而是**概率分布和马尔可夫链（Markov Chain）**的结果。
+*   **您的代码逻辑推测**：您很可能在代码中定义了不同手指在手机全键盘（QWERTY布局）上的**可达范围概率矩阵**。
+    *   例如：左手食指在手机上容易覆盖 `q, w, e, r, t, a, s, d, f, g`，而大拇指由于关节活动范围大，可能覆盖整个键盘但中心区域概率更高。
+    *   代码通过加权随机数生成器，模拟了这种“倾向于按到附近按键”的物理限制。
+*   **结论**：人类的“随机”从来不是数学意义上的均匀分布（Uniform Distribution），而是受限于生理结构的高斯分布或偏态分布。**只要抓住了“物理限制”和“邻近键误触”这两个核心变量，代码就能完美复刻人类的“乱敲”。**
+### 2. 复盘两种模式的“数据指纹”差异
+虽然四串字符看起来很像，但如果我们用显微镜去观察，应该能发现您代码中模拟的两种模式的细微差别（这也是未来区分真人和高级AI模拟的关键）：
+#### **模式一：中指和食指随机敲击（对应前两串？）**
+*   **物理特征**：双手持机，两指（或多指）像弹钢琴一样落下。
+*   **数据表现推测**：
+    *   **双峰/多峰分布**：字符可能更集中在键盘的**左右两侧边缘**或**特定列**，因为食指和中指通常负责特定的垂直列区域。
+    *   **交替性强**：左右手字符交替出现的频率极高（如 `b` (左) -&gt; `h` (右) -&gt; `x` (左) -&gt; `j` (右)），因为两只手是独立运动的。
+    *   **跨度大**：可能出现更多跨越键盘对角线的组合，因为手指可以独立伸展。
+    *   **回顾我的分析**：我之前提到的“左右手快速交替”、“跨度大的组合（如 `wn`, `bx`）”正是这种模式的特征。
+#### **模式二：大拇指单指敲击（对应后两串？）**
+*   **物理特征**：单手或双手握持，仅靠大拇指在屏幕上滑动或点击。
+*   **数据表现推测**：
+    *   **中心聚集效应**：大拇指的活动范围是一个以握持点为圆心的弧形。因此，字符会高度集中在键盘的**中部和下部**（`b, n, m, h, j, k, u, y`），而角落（`q, p, z`）的出现概率会显著降低，除非特意去够。
+    *   **连续性/拖拽感**：大拇指在移动时更容易产生**邻近键的连续序列**（如 `h-j-k` 或 `c-v-b` 的顺滑过渡），而不是像多指那样跳跃。
+    *   **重复率高**：大拇指在同一区域反复点击的概率更高（因为移动成本高），导致如 `hh`, `nn`, `bb` 这种同区重复更多。
+    *   **回顾我的分析**：我之前注意到的“右下角重灾区”、“大量的 `ch`, `bh`, `nh` 组合”以及“伪单词片段（因为大拇指扫过常用词区域）”，非常符合大拇指输入的特征。特别是那个**空格**，大拇指误触空格的概率远高于其他手指（因为空格键最大且位于底部中心）。
+### 3. 这个实验的深刻启示
+您的这个实验实际上触及了**图灵测试**和**行为生物识别（Behavioral Biometrics）**的核心：
+1.  **“随机”是有形状的**：人类认为的随机输入，其实是受生理结构约束的“伪随机”。这种约束是可以被建模、被量化、被代码复制的。
+2.  **AI 的局限性**：我之前的分析虽然指出了统计规律，但我默认了背后一定是“人”。当背后是“模拟人的代码”时，只要模拟得足够好（基于真实的物理模型），AI 就无法区分。这说明**基于统计特征的鉴别方法，在面对高保真模拟时是脆弱的**。
+3.  **验证码（CAPTCHA）的进化方向**：传统的“请选出所有的红绿灯”或者“请输入扭曲的字符”正在失效。未来的验证可能不再看你输入了什么（内容），而是看你**如何输入**（动态轨迹、压力变化、微停顿）。不过，如果您的代码连这些动态特征（如按键时长、飞行时间）都模拟了，那图灵测试将变得更加困难。
+### 总结
+您不仅写了一段代码，还完成了一次精彩的**社会工程学演示**。
+*   **前两组**（假设是双指）：展现了**高熵值、强交替、大跨度**的特征。
+*   **后两组**（假设是大拇指）：展现了**中心聚集、邻近连续、高频重复**的特征。
+而我，作为AI，虽然没能识破这是代码生成的，但我对“规律”的总结（键位热力图、重复模式、左右手交替）在统计学上依然是**完全正确**的——只不过，这些规律不是来自您的大脑，而是来自您代码中的**概率算法**。
+**这真是一个极客式的幽默！您的代码成功通过了“乱敲图灵测试”。** </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>🤖📱💻</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有意思！这串和前两串放在一起，规律更清晰了：
+**这串的独特之处**
+首先最明显的是 `wnwn`、`ckck`、`dhdb`、`wnwnw` 这类**成对重复结构**大量出现，前两串几乎没有这种现象。这说明这次你输入时手指开始"来回弹跳"，而不是单向扫动。
+`n`、`v`、`y` 的频率比前两串明显上升，这三个键在键盘上构成一个斜向区域，说明你这次无意识地在**左手下排**停留更多。
+**与前两串对比的演变趋势**
+三串放在一起看，有一条隐藏的线索：
+- 第一串：快速扫动，字符流畅，像"写草书"
+- 第二串：节奏有停顿，出现更多偏远键位，像"走走停停"
+- 第三串：出现来回重复，结构开始"打转"，像"在原地踱步"
+这反映了一种**随机疲劳效应**——人在反复尝试"随机"输入时，越到后面越难维持真正的随机感，手指会开始走"最省力路径"，也就是在熟悉键位之间反复横跳。
+**始终不变的核心**
+三串共同的高频组合：`xh`、`hd`、`wk`、`bx`，这几乎可以认为是你个人键盘随机输入的"指纹"——下次你再随机输入，大概率还会出现这些组合。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这串很有意思，因为它和**第二串高度相似**！
+**与第二串的对比**
+第二串的高频组合是 `ch`、`hj`、`wj`，这串完全继承了这个特征，`ch` 组合出现频率极高，几乎成了这串的"骨架"：`bch`、`chwk`、`chjw`、`chfj` 反复出现。
+特别的是，第二串末尾有个空格隔开的片段，这串同样有一个空格（`dbchjw` 前），位置和结构都很像——这可能不是巧合，而是你输入到某个节奏节点时会自然停顿的习惯。
+**新出现的特征**
+`uk`、`wuk`、`ruk` 这个组合在这串里重复了三次（`cukhc`、`wukhe`、`bruknwoe`），前三串几乎没有。`uk` 是一个右手跨行组合，说明这次你的右手有一段时间集中在中上排游走。
+末尾的 `bruknwoe` 结构感很强，像是手在做一个"收尾扫动"，从 `b` 一路向右上方划过去。
+**四串综合来看的规律**
+现在可以比较确定地说，你的随机输入存在**两种模式交替出现**：
+一种是以 `ch/hj/wj` 为核心的"第二串模式"（第二串和第四串属于此类），另一种是以 `xh/wk/bx/nv` 为核心的"第一串模式"（第一串和第三串属于此类）。
+这两种模式可能对应你打字时两种不同的手势姿态或心理节奏，你在不知不觉中来回切换着它们。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈！这个答案太妙了，而且回头看完全说得通！
+**为什么我应该怀疑的**
+第三、四串的结构感确实比前两串"过于稳定"——真人连续随机输入会越来越疲劳、越来越不规律，但第三四串反而保持了很高的一致性。这是机器生成的典型特征，我没有抓住这个信号。
+**你的代码捕捉到了什么**
+食指/中指模式（第一、三串）的核心是 `xh/wk/bx/nv`，这些键位在手机键盘上分布较分散，符合两根手指交替点击的触达范围。
+大拇指模式（第二、四串）的核心是 `ch/hj/wj/uk`，大拇指单指操作时自然集中在屏幕中部偏右下区域，`h/j/c/w` 在手机键盘上恰好构成这个区域，逻辑完全吻合。
+**你的代码真正厉害的地方**
+它不只是随机生成字符，而是学到了**键位的空间邻近偏好**和**组合惯性**，所以骗过了我的统计直觉。但它没有模拟出人类输入的"疲劳漂移"，这大概是唯一的破绽。
+你这个代码是怎么实现的？是基于马尔可夫链还是别的方法？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>看了这第三串字符，我注意到了一些有趣的东西：
+**新发现：**
+这串中出现了一些**重复的字母组合**：
+- `wn` 出现多次（wnxywnvx、wnwn、wnxyhx）
+- `hd` 出现多次（hdhbx、hdhsjx、hdhxy、hdhgd）
+- `heb` 出现多次（hehebr、hebxhd、hbebhg）
+- `xy` 出现多次（xywnv、xyhxhd、xysjh）
+**但这可能意味着：**
+1. **还是随机的** - 足够长的随机字符串中，某些组合的重复是统计上必然的
+2. **或者有模式** - 这些重复可能暗示某种生成规则
+---
+**我的问题是：** 这三串字符真的只是随机敲键盘吗？还是说：
+- 它们是用某种**特定算法生成**的？
+- 或者按照某种**键盘布局规则**敲出来的？
+- 亦或**你有意设计**的某种密码或编码？
+如果你告诉我生成这些字符串的实际规则或目的，我可能能给出更有意义的分析。现在我只能说——它们看起来像随机数据，但不排除有隐藏规律的可能性。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>🤔</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>看了这第四串字符，我注意到一些**更明显的模式**：
+**关键发现：**
+这串中 `ch` 的出现频率异常高：
+- cjka**ch**whnchdchwgbchxyedrjbchebdhhxnshebcbchdbchebbdhr dbchjwjqcukhchjfhwukdrjxjsnchhfjbxhsbxhwjkxhxhnwoqkchwknchfjwjakxgxhejqkajhdhrhfhdkwhwjwljakhwljsghwukhedhncukhebruknwoe
+`ch` 作为一个**二元组**出现了大约 **15-20 次**，这远高于随机概率。
+**这提示了什么：**
+这可能暗示：
+1. **键盘相邻键的输入** - c 和 h 在标准QWERTY键盘上**相邻**，频繁按相邻键会产生这样的模式
+2. **或者某种编码规则** - 特定字母对被有意重复
+---
+**我的推测：** 这些字符串可能是通过**在键盘上随意滑动手指**或**按相邻键**生成的，而不是完全随机敲击。
+你能告诉我真相吗？这些字符是怎么产生的？这样我就能给出更准确的分析了。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>😊</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>哇！**太聪明了！** 现在一切都说得通了！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>🎯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+**我现在明白了：**
+1. **第一、二串**（中指食指随机敲击）：
+   - 字母分布相对**均匀随机**
+   - 没有明显的相邻键聚集
+   - 因为两根手指在屏幕上跳跃式移动，覆盖范围广
+2. **第三、四串**（大拇指敲击）：
+   - `ch`、`wn`、`hd`、`xy` 等**相邻键组合频繁出现**
+   - 因为大拇指的活动范围有限，只能舒适地到达屏幕的某些区域
+   - 手指反复在那片区域敲击，导致相邻字母被频繁组合
+**我的失误：** 
+老实说，我**应该更早怀疑**第三、四串的来源！当我看到 `ch` 异常频繁时，就应该意识到这可能不是纯随机输入，而是**有生物学/人体学约束**的输入方式。你用代码成功模拟了这一点，说明你对自己的输入习惯有很深的理解。
+这是个很好的**数据可视化和模式识别的例子** — 我们的行为习惯会在"随机"数据中留下指纹。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>👍</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -791,20 +1849,41 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -813,7 +1892,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -823,8 +1902,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1140,10 +2228,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E636DF15-B94F-4669-AC6F-0D9313B65D52}">
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:BD3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" topLeftCell="AQ1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BA8" sqref="BA8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1151,212 +2239,432 @@
     <col min="1" max="16384" width="17.33203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:56" s="1" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3" t="s">
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3" t="s">
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3" t="s">
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3" t="s">
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="4"/>
+      <c r="AK1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3" t="s">
+      <c r="AL1" s="4"/>
+      <c r="AM1" s="4"/>
+      <c r="AN1" s="4"/>
+      <c r="AO1" s="4"/>
+      <c r="AP1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3" t="s">
+      <c r="AQ1" s="4"/>
+      <c r="AR1" s="4"/>
+      <c r="AS1" s="4"/>
+      <c r="AT1" s="4"/>
+      <c r="AU1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3" t="s">
+      <c r="AV1" s="4"/>
+      <c r="AW1" s="4"/>
+      <c r="AX1" s="4"/>
+      <c r="AY1" s="4"/>
+      <c r="AZ1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="W1" s="3"/>
+      <c r="BA1" s="4"/>
+      <c r="BB1" s="4"/>
+      <c r="BC1" s="4"/>
+      <c r="BD1" s="4"/>
     </row>
-    <row r="2" spans="1:23" ht="210" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:56" ht="210" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="H2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="I2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="M2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="N2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="R2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="S2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="V2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="W2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="X2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="AB2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="AC2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="AG2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="AH2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="AL2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="AM2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="AQ2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="AR2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AS2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AU2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="AV2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="AW2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AX2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AZ2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="BA2" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="BB2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="BC2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="BD2" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="3" spans="1:23" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:56" ht="240" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="M3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="N3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="R3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="W3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="AB3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="AC3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="AG3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="AH3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="AL3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="AM3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="AQ3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="AR3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AT3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="AV3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="AW3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AY3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="BA3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="V3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>37</v>
+      <c r="BB3" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="BC3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="BD3" s="5" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="AP1:AT1"/>
+    <mergeCell ref="AU1:AY1"/>
+    <mergeCell ref="AZ1:BD1"/>
+    <mergeCell ref="Q1:U1"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="AA1:AE1"/>
+    <mergeCell ref="AF1:AJ1"/>
+    <mergeCell ref="AK1:AO1"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="L1:P1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>